--- a/Code/Results/Cases/Case_0_91/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_91/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9735510290300765</v>
+        <v>1.048804318342366</v>
       </c>
       <c r="D2">
-        <v>0.9854620349198414</v>
+        <v>1.058095825123549</v>
       </c>
       <c r="E2">
-        <v>0.9872892122419655</v>
+        <v>1.05550019707496</v>
       </c>
       <c r="F2">
-        <v>0.9834151842164596</v>
+        <v>1.064786602124767</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035424474040958</v>
+        <v>1.027286536288927</v>
       </c>
       <c r="J2">
-        <v>0.9965526656865882</v>
+        <v>1.053846126285822</v>
       </c>
       <c r="K2">
-        <v>0.9971276923888193</v>
+        <v>1.06082899501607</v>
       </c>
       <c r="L2">
-        <v>0.9989285156020551</v>
+        <v>1.058240484293667</v>
       </c>
       <c r="M2">
-        <v>0.9951105117020864</v>
+        <v>1.067501598779448</v>
       </c>
       <c r="N2">
-        <v>0.9979678847780515</v>
+        <v>1.055342708662988</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9840967926870221</v>
+        <v>1.050456132646184</v>
       </c>
       <c r="D3">
-        <v>0.9959578076409203</v>
+        <v>1.059717873932031</v>
       </c>
       <c r="E3">
-        <v>0.9971283353372825</v>
+        <v>1.057022838121862</v>
       </c>
       <c r="F3">
-        <v>0.9957082506471747</v>
+        <v>1.066546039456642</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039079743722668</v>
+        <v>1.027488238018589</v>
       </c>
       <c r="J3">
-        <v>1.005030588133802</v>
+        <v>1.055143524599395</v>
       </c>
       <c r="K3">
-        <v>1.00664267169065</v>
+        <v>1.062262960728831</v>
       </c>
       <c r="L3">
-        <v>1.007798091995628</v>
+        <v>1.059574771125205</v>
       </c>
       <c r="M3">
-        <v>1.006396341346889</v>
+        <v>1.069073947467342</v>
       </c>
       <c r="N3">
-        <v>1.006457846847572</v>
+        <v>1.05664194943098</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9905011373213414</v>
+        <v>1.051516129805429</v>
       </c>
       <c r="D4">
-        <v>1.002311535889091</v>
+        <v>1.06075716925474</v>
       </c>
       <c r="E4">
-        <v>1.003086236993914</v>
+        <v>1.057998493754565</v>
       </c>
       <c r="F4">
-        <v>1.003103431523694</v>
+        <v>1.067669527853223</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041210436309367</v>
+        <v>1.027608963341159</v>
       </c>
       <c r="J4">
-        <v>1.010150986104821</v>
+        <v>1.055973896163518</v>
       </c>
       <c r="K4">
-        <v>1.012382142539733</v>
+        <v>1.063180096727854</v>
       </c>
       <c r="L4">
-        <v>1.013147556023259</v>
+        <v>1.060428070540326</v>
       </c>
       <c r="M4">
-        <v>1.013164544615682</v>
+        <v>1.070075956318342</v>
       </c>
       <c r="N4">
-        <v>1.011585516371027</v>
+        <v>1.057473500217969</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9931049372779589</v>
+        <v>1.051959665975854</v>
       </c>
       <c r="D5">
-        <v>1.004890310603672</v>
+        <v>1.061191658368259</v>
       </c>
       <c r="E5">
-        <v>1.005504729142631</v>
+        <v>1.05840639033651</v>
       </c>
       <c r="F5">
-        <v>1.006094523087766</v>
+        <v>1.068138292474475</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042056057193499</v>
+        <v>1.027657380204171</v>
       </c>
       <c r="J5">
-        <v>1.012226470211765</v>
+        <v>1.056320823238079</v>
       </c>
       <c r="K5">
-        <v>1.014706941646275</v>
+        <v>1.063563118958202</v>
       </c>
       <c r="L5">
-        <v>1.015314222989624</v>
+        <v>1.060784412506436</v>
       </c>
       <c r="M5">
-        <v>1.015897175917384</v>
+        <v>1.070493547951727</v>
       </c>
       <c r="N5">
-        <v>1.013663947903465</v>
+        <v>1.057820919968768</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9935372290217899</v>
+        <v>1.052034016108672</v>
       </c>
       <c r="D6">
-        <v>1.005318195880061</v>
+        <v>1.061264469316834</v>
       </c>
       <c r="E6">
-        <v>1.005906040368475</v>
+        <v>1.058474745698517</v>
       </c>
       <c r="F6">
-        <v>1.006590231062989</v>
+        <v>1.068216793005345</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042195251189314</v>
+        <v>1.027665372821272</v>
       </c>
       <c r="J6">
-        <v>1.01257068902912</v>
+        <v>1.056378947796693</v>
       </c>
       <c r="K6">
-        <v>1.015092417186156</v>
+        <v>1.063627281826349</v>
       </c>
       <c r="L6">
-        <v>1.015673469498104</v>
+        <v>1.060844104771733</v>
       </c>
       <c r="M6">
-        <v>1.016349767134714</v>
+        <v>1.070563450207883</v>
       </c>
       <c r="N6">
-        <v>1.014008655551023</v>
+        <v>1.057879127070923</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9905362637606753</v>
+        <v>1.051522064518176</v>
       </c>
       <c r="D7">
-        <v>1.002346341958493</v>
+        <v>1.060762984430582</v>
       </c>
       <c r="E7">
-        <v>1.003118878270912</v>
+        <v>1.058003952967518</v>
       </c>
       <c r="F7">
-        <v>1.003143843110865</v>
+        <v>1.067675805408264</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041221925543707</v>
+        <v>1.02760961945904</v>
       </c>
       <c r="J7">
-        <v>1.010179009910346</v>
+        <v>1.055978540278783</v>
       </c>
       <c r="K7">
-        <v>1.012413538973409</v>
+        <v>1.063185224639523</v>
       </c>
       <c r="L7">
-        <v>1.013176817501308</v>
+        <v>1.060432841336066</v>
       </c>
       <c r="M7">
-        <v>1.013201483467023</v>
+        <v>1.070081550505112</v>
       </c>
       <c r="N7">
-        <v>1.011613579973571</v>
+        <v>1.05747815092841</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9772099024476436</v>
+        <v>1.049364404379915</v>
       </c>
       <c r="D8">
-        <v>0.989108236256118</v>
+        <v>1.058646150982085</v>
       </c>
       <c r="E8">
-        <v>0.9907069085474911</v>
+        <v>1.056016784737586</v>
       </c>
       <c r="F8">
-        <v>0.9876964021138815</v>
+        <v>1.065384338259888</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036712458139912</v>
+        <v>1.027356734046798</v>
       </c>
       <c r="J8">
-        <v>0.9995005045315362</v>
+        <v>1.054286494425345</v>
       </c>
       <c r="K8">
-        <v>1.000437793048014</v>
+        <v>1.061315850902722</v>
       </c>
       <c r="L8">
-        <v>1.002014249718478</v>
+        <v>1.058693514910569</v>
       </c>
       <c r="M8">
-        <v>0.99904565365659</v>
+        <v>1.068036193157926</v>
       </c>
       <c r="N8">
-        <v>1.000919909892281</v>
+        <v>1.05578370217578</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9497796664172978</v>
+        <v>1.045493282540499</v>
       </c>
       <c r="D9">
-        <v>0.9616509645290575</v>
+        <v>1.054835871126434</v>
       </c>
       <c r="E9">
-        <v>0.964980147451499</v>
+        <v>1.052440327654229</v>
       </c>
       <c r="F9">
-        <v>0.95518724354452</v>
+        <v>1.061229921903791</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026589475560399</v>
+        <v>1.026835758496609</v>
       </c>
       <c r="J9">
-        <v>0.9772395937748624</v>
+        <v>1.05123376560083</v>
       </c>
       <c r="K9">
-        <v>0.9753984603551762</v>
+        <v>1.057938203828243</v>
       </c>
       <c r="L9">
-        <v>0.9786681556684267</v>
+        <v>1.055550191432082</v>
       </c>
       <c r="M9">
-        <v>0.9690517780862421</v>
+        <v>1.064312334914406</v>
       </c>
       <c r="N9">
-        <v>0.9786273860889706</v>
+        <v>1.052726638126182</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9272182661287062</v>
+        <v>1.042864102964517</v>
       </c>
       <c r="D10">
-        <v>0.9388442288204394</v>
+        <v>1.052239693480478</v>
       </c>
       <c r="E10">
-        <v>0.9436272139835834</v>
+        <v>1.050003765052644</v>
       </c>
       <c r="F10">
-        <v>0.9277143765241698</v>
+        <v>1.058379291337064</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.017519108886574</v>
+        <v>1.026437160985646</v>
       </c>
       <c r="J10">
-        <v>0.9586498875694548</v>
+        <v>1.049149036313858</v>
       </c>
       <c r="K10">
-        <v>0.954413027094451</v>
+        <v>1.055628255595466</v>
       </c>
       <c r="L10">
-        <v>0.9590947797331036</v>
+        <v>1.053400064795216</v>
       </c>
       <c r="M10">
-        <v>0.9435241135029314</v>
+        <v>1.061746791731907</v>
       </c>
       <c r="N10">
-        <v>0.9600112803684827</v>
+        <v>1.0506389482845</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9157091675062744</v>
+        <v>1.041713677545962</v>
       </c>
       <c r="D11">
-        <v>0.9271223823536455</v>
+        <v>1.051101739859867</v>
       </c>
       <c r="E11">
-        <v>0.9326579853893446</v>
+        <v>1.048935846335879</v>
       </c>
       <c r="F11">
-        <v>0.9134229176538949</v>
+        <v>1.057125086563524</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012646350846086</v>
+        <v>1.026252243156335</v>
       </c>
       <c r="J11">
-        <v>0.9490636252788809</v>
+        <v>1.048234149395155</v>
       </c>
       <c r="K11">
-        <v>0.9435632449352418</v>
+        <v>1.054613747017149</v>
       </c>
       <c r="L11">
-        <v>0.9489723517393116</v>
+        <v>1.052455647816042</v>
       </c>
       <c r="M11">
-        <v>0.9301856867622972</v>
+        <v>1.060615602918453</v>
       </c>
       <c r="N11">
-        <v>0.9504114044858961</v>
+        <v>1.049722762121433</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9110466382762762</v>
+        <v>1.041284516768045</v>
       </c>
       <c r="D12">
-        <v>0.9223549114287206</v>
+        <v>1.050676936031618</v>
       </c>
       <c r="E12">
-        <v>0.9281976142605748</v>
+        <v>1.048537197981402</v>
       </c>
       <c r="F12">
-        <v>0.9075754121626738</v>
+        <v>1.056656177412334</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010624459852477</v>
+        <v>1.026181690060154</v>
       </c>
       <c r="J12">
-        <v>0.9451587395464753</v>
+        <v>1.047892451209734</v>
       </c>
       <c r="K12">
-        <v>0.9391378690028326</v>
+        <v>1.054234724058887</v>
       </c>
       <c r="L12">
-        <v>0.9448430681541971</v>
+        <v>1.052102796252268</v>
       </c>
       <c r="M12">
-        <v>0.9247168507672265</v>
+        <v>1.060192325800343</v>
       </c>
       <c r="N12">
-        <v>0.9465009733678541</v>
+        <v>1.049380578685396</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9120675472600699</v>
+        <v>1.041376657252431</v>
       </c>
       <c r="D13">
-        <v>0.9233997691227719</v>
+        <v>1.050768154450273</v>
       </c>
       <c r="E13">
-        <v>0.9291751186214846</v>
+        <v>1.0486227995127</v>
       </c>
       <c r="F13">
-        <v>0.9088587458901556</v>
+        <v>1.056756898612233</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011069569701188</v>
+        <v>1.026196908651096</v>
       </c>
       <c r="J13">
-        <v>0.9460148446386337</v>
+        <v>1.047965831807091</v>
       </c>
       <c r="K13">
-        <v>0.940108382051792</v>
+        <v>1.054316125554137</v>
       </c>
       <c r="L13">
-        <v>0.9457486762769175</v>
+        <v>1.052178577681205</v>
       </c>
       <c r="M13">
-        <v>0.9259176378552264</v>
+        <v>1.060283261514093</v>
       </c>
       <c r="N13">
-        <v>0.9473582942274399</v>
+        <v>1.049454063491619</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9153327818718733</v>
+        <v>1.04167824080316</v>
       </c>
       <c r="D14">
-        <v>0.92673794182359</v>
+        <v>1.051066668901698</v>
       </c>
       <c r="E14">
-        <v>0.9322982878781839</v>
+        <v>1.048902934494595</v>
       </c>
       <c r="F14">
-        <v>0.9129521480250058</v>
+        <v>1.057086388778319</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012484167886879</v>
+        <v>1.026246449380346</v>
       </c>
       <c r="J14">
-        <v>0.9487488699760277</v>
+        <v>1.048205942857021</v>
       </c>
       <c r="K14">
-        <v>0.943206662546493</v>
+        <v>1.054582461778609</v>
       </c>
       <c r="L14">
-        <v>0.9486396403595587</v>
+        <v>1.052426523116504</v>
       </c>
       <c r="M14">
-        <v>0.9297456444866677</v>
+        <v>1.060580678330698</v>
       </c>
       <c r="N14">
-        <v>0.95009620219441</v>
+        <v>1.04969451552678</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9172877233058615</v>
+        <v>1.041863811049387</v>
       </c>
       <c r="D15">
-        <v>0.928733939681059</v>
+        <v>1.051250311573437</v>
       </c>
       <c r="E15">
-        <v>0.9341658615654155</v>
+        <v>1.049075271799178</v>
       </c>
       <c r="F15">
-        <v>0.9153949215355092</v>
+        <v>1.057288993728594</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013324577007918</v>
+        <v>1.026276725274696</v>
       </c>
       <c r="J15">
-        <v>0.9503828207942149</v>
+        <v>1.048353634453407</v>
       </c>
       <c r="K15">
-        <v>0.9450575053708331</v>
+        <v>1.054746268891255</v>
       </c>
       <c r="L15">
-        <v>0.9503665565503576</v>
+        <v>1.052579017200067</v>
       </c>
       <c r="M15">
-        <v>0.9320285170004999</v>
+        <v>1.060763513759093</v>
       </c>
       <c r="N15">
-        <v>0.951732473410176</v>
+        <v>1.049842416862173</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9279367097520576</v>
+        <v>1.042940197044367</v>
       </c>
       <c r="D16">
-        <v>0.9395738781955069</v>
+        <v>1.052314921334672</v>
       </c>
       <c r="E16">
-        <v>0.944310133436144</v>
+        <v>1.050074364576433</v>
       </c>
       <c r="F16">
-        <v>0.9286000391537179</v>
+        <v>1.058462105445785</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01781777759572</v>
+        <v>1.026449172492655</v>
       </c>
       <c r="J16">
-        <v>0.9592459044413745</v>
+        <v>1.049209494432673</v>
       </c>
       <c r="K16">
-        <v>0.9550869526438922</v>
+        <v>1.055695280577685</v>
       </c>
       <c r="L16">
-        <v>0.9597234627840455</v>
+        <v>1.053462456975878</v>
       </c>
       <c r="M16">
-        <v>0.9443494184041943</v>
+        <v>1.06182143288441</v>
       </c>
       <c r="N16">
-        <v>0.9606081436527242</v>
+        <v>1.050699492260779</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9340871365620457</v>
+        <v>1.043612150383544</v>
       </c>
       <c r="D17">
-        <v>0.9458107574263755</v>
+        <v>1.052978999287257</v>
       </c>
       <c r="E17">
-        <v>0.950148155382094</v>
+        <v>1.050697594050364</v>
       </c>
       <c r="F17">
-        <v>0.9361520793932016</v>
+        <v>1.059192609861862</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020348266090427</v>
+        <v>1.026554034724548</v>
       </c>
       <c r="J17">
-        <v>0.9643371306585773</v>
+        <v>1.049743064324509</v>
       </c>
       <c r="K17">
-        <v>0.9608406662817642</v>
+        <v>1.056286716094883</v>
       </c>
       <c r="L17">
-        <v>0.96509062418478</v>
+        <v>1.054013000640728</v>
       </c>
       <c r="M17">
-        <v>0.9513805507440741</v>
+        <v>1.062479567228624</v>
       </c>
       <c r="N17">
-        <v>0.9657065999951275</v>
+        <v>1.051233819883062</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9375178707992246</v>
+        <v>1.044002937130818</v>
       </c>
       <c r="D18">
-        <v>0.9492825307109501</v>
+        <v>1.053365017197873</v>
       </c>
       <c r="E18">
-        <v>0.9533983591123134</v>
+        <v>1.051059874336846</v>
       </c>
       <c r="F18">
-        <v>0.9403418095849946</v>
+        <v>1.059616788277543</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021739266996664</v>
+        <v>1.026614011233293</v>
       </c>
       <c r="J18">
-        <v>0.9671685129863443</v>
+        <v>1.050053113545975</v>
       </c>
       <c r="K18">
-        <v>0.9640381715458389</v>
+        <v>1.056630315074434</v>
       </c>
       <c r="L18">
-        <v>0.9680730916996815</v>
+        <v>1.054332833552768</v>
       </c>
       <c r="M18">
-        <v>0.9552764208077248</v>
+        <v>1.062861491841754</v>
       </c>
       <c r="N18">
-        <v>0.9685420032105636</v>
+        <v>1.051544309409986</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9386635902116345</v>
+        <v>1.044135991133596</v>
       </c>
       <c r="D19">
-        <v>0.9504408385335043</v>
+        <v>1.053496415495051</v>
       </c>
       <c r="E19">
-        <v>0.954482816743661</v>
+        <v>1.051183193654496</v>
       </c>
       <c r="F19">
-        <v>0.9417374265393506</v>
+        <v>1.059761099469125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022200519309963</v>
+        <v>1.026634260629912</v>
       </c>
       <c r="J19">
-        <v>0.9681127347095145</v>
+        <v>1.050158634461549</v>
       </c>
       <c r="K19">
-        <v>0.9651041274408593</v>
+        <v>1.056747241436066</v>
       </c>
       <c r="L19">
-        <v>0.969067326028506</v>
+        <v>1.054441670709686</v>
       </c>
       <c r="M19">
-        <v>0.9565733696151817</v>
+        <v>1.062991388443327</v>
       </c>
       <c r="N19">
-        <v>0.9694875658368849</v>
+        <v>1.051649980177364</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9334440949757158</v>
+        <v>1.043540175637059</v>
       </c>
       <c r="D20">
-        <v>0.9451594588415528</v>
+        <v>1.052907887639962</v>
       </c>
       <c r="E20">
-        <v>0.9495384593647471</v>
+        <v>1.050630855871737</v>
       </c>
       <c r="F20">
-        <v>0.9353649734378698</v>
+        <v>1.059114431872305</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020085906215263</v>
+        <v>1.026542906970546</v>
       </c>
       <c r="J20">
-        <v>0.9638057550091971</v>
+        <v>1.049685938928336</v>
       </c>
       <c r="K20">
-        <v>0.9602403965313195</v>
+        <v>1.056223403225172</v>
       </c>
       <c r="L20">
-        <v>0.9645307063099923</v>
+        <v>1.053954066220066</v>
       </c>
       <c r="M20">
-        <v>0.9506482606572139</v>
+        <v>1.062409158141655</v>
       </c>
       <c r="N20">
-        <v>0.9651744697313752</v>
+        <v>1.051176613362274</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9143834996860791</v>
+        <v>1.041589483152185</v>
       </c>
       <c r="D21">
-        <v>0.9257680230365858</v>
+        <v>1.050978822653564</v>
       </c>
       <c r="E21">
-        <v>0.9313908105850339</v>
+        <v>1.048820496613536</v>
       </c>
       <c r="F21">
-        <v>0.9117638350750911</v>
+        <v>1.056989446576506</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012074321722942</v>
+        <v>1.026231912518285</v>
       </c>
       <c r="J21">
-        <v>0.947954662789224</v>
+        <v>1.048135288027346</v>
       </c>
       <c r="K21">
-        <v>0.9423068164977997</v>
+        <v>1.054504093189688</v>
       </c>
       <c r="L21">
-        <v>0.9478000235870619</v>
+        <v>1.052353566371638</v>
       </c>
       <c r="M21">
-        <v>0.9286347051039088</v>
+        <v>1.060493182607434</v>
       </c>
       <c r="N21">
-        <v>0.9493008671423043</v>
+        <v>1.049623760359143</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8999837206867251</v>
+        <v>1.04035232820555</v>
       </c>
       <c r="D22">
-        <v>0.9109955646684352</v>
+        <v>1.049753669680425</v>
       </c>
       <c r="E22">
-        <v>0.917572201660358</v>
+        <v>1.047670798323042</v>
       </c>
       <c r="F22">
-        <v>0.8935572921212896</v>
+        <v>1.05563575542647</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005712844869255</v>
+        <v>1.026025571364273</v>
       </c>
       <c r="J22">
-        <v>0.9358407631024418</v>
+        <v>1.047149502042212</v>
       </c>
       <c r="K22">
-        <v>0.928563532775149</v>
+        <v>1.053410405331989</v>
       </c>
       <c r="L22">
-        <v>0.934974758753701</v>
+        <v>1.051335369033051</v>
       </c>
       <c r="M22">
-        <v>0.9115798888471291</v>
+        <v>1.059270549409009</v>
       </c>
       <c r="N22">
-        <v>0.937169764328483</v>
+        <v>1.048636574444839</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9079253765592905</v>
+        <v>1.041009194263411</v>
       </c>
       <c r="D23">
-        <v>0.9191569632111218</v>
+        <v>1.050404325434018</v>
       </c>
       <c r="E23">
-        <v>0.9252059768145559</v>
+        <v>1.048281375358128</v>
       </c>
       <c r="F23">
-        <v>0.9036413032179657</v>
+        <v>1.056355063617472</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.009255187981409</v>
+        <v>1.026135986386036</v>
       </c>
       <c r="J23">
-        <v>0.9425374696798335</v>
+        <v>1.04767312547901</v>
       </c>
       <c r="K23">
-        <v>0.9361652479665298</v>
+        <v>1.053991407663165</v>
       </c>
       <c r="L23">
-        <v>0.9420691392853762</v>
+        <v>1.051876276550971</v>
       </c>
       <c r="M23">
-        <v>0.9210338329084449</v>
+        <v>1.059920413963197</v>
       </c>
       <c r="N23">
-        <v>0.9438759809973377</v>
+        <v>1.049160941486977</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9337351341753248</v>
+        <v>1.043572701485409</v>
       </c>
       <c r="D24">
-        <v>0.9454542574291327</v>
+        <v>1.052940024032333</v>
       </c>
       <c r="E24">
-        <v>0.9498144258760238</v>
+        <v>1.050661015808243</v>
       </c>
       <c r="F24">
-        <v>0.9357212867643993</v>
+        <v>1.059149763047318</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02020471365468</v>
+        <v>1.026547938793402</v>
       </c>
       <c r="J24">
-        <v>0.9640462809470467</v>
+        <v>1.049711755058927</v>
       </c>
       <c r="K24">
-        <v>0.9605121143969664</v>
+        <v>1.056252015833505</v>
       </c>
       <c r="L24">
-        <v>0.964784159193753</v>
+        <v>1.053980700131814</v>
       </c>
       <c r="M24">
-        <v>0.9509797747266351</v>
+        <v>1.062440979012555</v>
       </c>
       <c r="N24">
-        <v>0.9654153372436456</v>
+        <v>1.051202466154732</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9574655605696497</v>
+        <v>1.046502443619029</v>
       </c>
       <c r="D25">
-        <v>0.9693731675393884</v>
+        <v>1.055830627671226</v>
       </c>
       <c r="E25">
-        <v>0.9722134092932974</v>
+        <v>1.053373988506274</v>
       </c>
       <c r="F25">
-        <v>0.9643926460329727</v>
+        <v>1.062318014848719</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029530708498999</v>
+        <v>1.02697943277255</v>
       </c>
       <c r="J25">
-        <v>0.9835143522177998</v>
+        <v>1.052031573115911</v>
       </c>
       <c r="K25">
-        <v>0.9824662912980234</v>
+        <v>1.058821508967545</v>
       </c>
       <c r="L25">
-        <v>0.9852589565018586</v>
+        <v>1.056372293002348</v>
       </c>
       <c r="M25">
-        <v>0.9775700716414821</v>
+        <v>1.065289473043913</v>
       </c>
       <c r="N25">
-        <v>0.984911055408622</v>
+        <v>1.053525578619444</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_91/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_91/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048804318342366</v>
+        <v>0.9735510290300774</v>
       </c>
       <c r="D2">
-        <v>1.058095825123549</v>
+        <v>0.9854620349198423</v>
       </c>
       <c r="E2">
-        <v>1.05550019707496</v>
+        <v>0.9872892122419664</v>
       </c>
       <c r="F2">
-        <v>1.064786602124767</v>
+        <v>0.9834151842164607</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027286536288927</v>
+        <v>1.035424474040958</v>
       </c>
       <c r="J2">
-        <v>1.053846126285822</v>
+        <v>0.996552665686589</v>
       </c>
       <c r="K2">
-        <v>1.06082899501607</v>
+        <v>0.9971276923888202</v>
       </c>
       <c r="L2">
-        <v>1.058240484293667</v>
+        <v>0.998928515602056</v>
       </c>
       <c r="M2">
-        <v>1.067501598779448</v>
+        <v>0.9951105117020875</v>
       </c>
       <c r="N2">
-        <v>1.055342708662988</v>
+        <v>0.9979678847780523</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050456132646184</v>
+        <v>0.9840967926870222</v>
       </c>
       <c r="D3">
-        <v>1.059717873932031</v>
+        <v>0.9959578076409203</v>
       </c>
       <c r="E3">
-        <v>1.057022838121862</v>
+        <v>0.9971283353372826</v>
       </c>
       <c r="F3">
-        <v>1.066546039456642</v>
+        <v>0.9957082506471747</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027488238018589</v>
+        <v>1.039079743722668</v>
       </c>
       <c r="J3">
-        <v>1.055143524599395</v>
+        <v>1.005030588133802</v>
       </c>
       <c r="K3">
-        <v>1.062262960728831</v>
+        <v>1.00664267169065</v>
       </c>
       <c r="L3">
-        <v>1.059574771125205</v>
+        <v>1.007798091995628</v>
       </c>
       <c r="M3">
-        <v>1.069073947467342</v>
+        <v>1.006396341346889</v>
       </c>
       <c r="N3">
-        <v>1.05664194943098</v>
+        <v>1.006457846847572</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051516129805429</v>
+        <v>0.990501137321343</v>
       </c>
       <c r="D4">
-        <v>1.06075716925474</v>
+        <v>1.002311535889092</v>
       </c>
       <c r="E4">
-        <v>1.057998493754565</v>
+        <v>1.003086236993916</v>
       </c>
       <c r="F4">
-        <v>1.067669527853223</v>
+        <v>1.003103431523696</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027608963341159</v>
+        <v>1.041210436309367</v>
       </c>
       <c r="J4">
-        <v>1.055973896163518</v>
+        <v>1.010150986104822</v>
       </c>
       <c r="K4">
-        <v>1.063180096727854</v>
+        <v>1.012382142539735</v>
       </c>
       <c r="L4">
-        <v>1.060428070540326</v>
+        <v>1.01314755602326</v>
       </c>
       <c r="M4">
-        <v>1.070075956318342</v>
+        <v>1.013164544615683</v>
       </c>
       <c r="N4">
-        <v>1.057473500217969</v>
+        <v>1.011585516371029</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051959665975854</v>
+        <v>0.9931049372779605</v>
       </c>
       <c r="D5">
-        <v>1.061191658368259</v>
+        <v>1.004890310603674</v>
       </c>
       <c r="E5">
-        <v>1.05840639033651</v>
+        <v>1.005504729142633</v>
       </c>
       <c r="F5">
-        <v>1.068138292474475</v>
+        <v>1.006094523087768</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027657380204171</v>
+        <v>1.042056057193499</v>
       </c>
       <c r="J5">
-        <v>1.056320823238079</v>
+        <v>1.012226470211766</v>
       </c>
       <c r="K5">
-        <v>1.063563118958202</v>
+        <v>1.014706941646277</v>
       </c>
       <c r="L5">
-        <v>1.060784412506436</v>
+        <v>1.015314222989625</v>
       </c>
       <c r="M5">
-        <v>1.070493547951727</v>
+        <v>1.015897175917385</v>
       </c>
       <c r="N5">
-        <v>1.057820919968768</v>
+        <v>1.013663947903466</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052034016108672</v>
+        <v>0.9935372290217921</v>
       </c>
       <c r="D6">
-        <v>1.061264469316834</v>
+        <v>1.005318195880063</v>
       </c>
       <c r="E6">
-        <v>1.058474745698517</v>
+        <v>1.005906040368478</v>
       </c>
       <c r="F6">
-        <v>1.068216793005345</v>
+        <v>1.006590231062992</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027665372821272</v>
+        <v>1.042195251189314</v>
       </c>
       <c r="J6">
-        <v>1.056378947796693</v>
+        <v>1.012570689029123</v>
       </c>
       <c r="K6">
-        <v>1.063627281826349</v>
+        <v>1.015092417186158</v>
       </c>
       <c r="L6">
-        <v>1.060844104771733</v>
+        <v>1.015673469498106</v>
       </c>
       <c r="M6">
-        <v>1.070563450207883</v>
+        <v>1.016349767134717</v>
       </c>
       <c r="N6">
-        <v>1.057879127070923</v>
+        <v>1.014008655551026</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051522064518176</v>
+        <v>0.9905362637606739</v>
       </c>
       <c r="D7">
-        <v>1.060762984430582</v>
+        <v>1.002346341958493</v>
       </c>
       <c r="E7">
-        <v>1.058003952967518</v>
+        <v>1.003118878270911</v>
       </c>
       <c r="F7">
-        <v>1.067675805408264</v>
+        <v>1.003143843110864</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02760961945904</v>
+        <v>1.041221925543707</v>
       </c>
       <c r="J7">
-        <v>1.055978540278783</v>
+        <v>1.010179009910345</v>
       </c>
       <c r="K7">
-        <v>1.063185224639523</v>
+        <v>1.012413538973408</v>
       </c>
       <c r="L7">
-        <v>1.060432841336066</v>
+        <v>1.013176817501307</v>
       </c>
       <c r="M7">
-        <v>1.070081550505112</v>
+        <v>1.013201483467022</v>
       </c>
       <c r="N7">
-        <v>1.05747815092841</v>
+        <v>1.011613579973569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049364404379915</v>
+        <v>0.9772099024476438</v>
       </c>
       <c r="D8">
-        <v>1.058646150982085</v>
+        <v>0.9891082362561187</v>
       </c>
       <c r="E8">
-        <v>1.056016784737586</v>
+        <v>0.9907069085474917</v>
       </c>
       <c r="F8">
-        <v>1.065384338259888</v>
+        <v>0.9876964021138821</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027356734046798</v>
+        <v>1.036712458139912</v>
       </c>
       <c r="J8">
-        <v>1.054286494425345</v>
+        <v>0.9995005045315365</v>
       </c>
       <c r="K8">
-        <v>1.061315850902722</v>
+        <v>1.000437793048015</v>
       </c>
       <c r="L8">
-        <v>1.058693514910569</v>
+        <v>1.002014249718478</v>
       </c>
       <c r="M8">
-        <v>1.068036193157926</v>
+        <v>0.9990456536565906</v>
       </c>
       <c r="N8">
-        <v>1.05578370217578</v>
+        <v>1.000919909892281</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045493282540499</v>
+        <v>0.9497796664172973</v>
       </c>
       <c r="D9">
-        <v>1.054835871126434</v>
+        <v>0.9616509645290569</v>
       </c>
       <c r="E9">
-        <v>1.052440327654229</v>
+        <v>0.9649801474514981</v>
       </c>
       <c r="F9">
-        <v>1.061229921903791</v>
+        <v>0.9551872435445191</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026835758496609</v>
+        <v>1.026589475560398</v>
       </c>
       <c r="J9">
-        <v>1.05123376560083</v>
+        <v>0.9772395937748617</v>
       </c>
       <c r="K9">
-        <v>1.057938203828243</v>
+        <v>0.9753984603551755</v>
       </c>
       <c r="L9">
-        <v>1.055550191432082</v>
+        <v>0.9786681556684258</v>
       </c>
       <c r="M9">
-        <v>1.064312334914406</v>
+        <v>0.9690517780862411</v>
       </c>
       <c r="N9">
-        <v>1.052726638126182</v>
+        <v>0.9786273860889699</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042864102964517</v>
+        <v>0.9272182661287068</v>
       </c>
       <c r="D10">
-        <v>1.052239693480478</v>
+        <v>0.9388442288204397</v>
       </c>
       <c r="E10">
-        <v>1.050003765052644</v>
+        <v>0.9436272139835837</v>
       </c>
       <c r="F10">
-        <v>1.058379291337064</v>
+        <v>0.9277143765241701</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026437160985646</v>
+        <v>1.017519108886574</v>
       </c>
       <c r="J10">
-        <v>1.049149036313858</v>
+        <v>0.9586498875694552</v>
       </c>
       <c r="K10">
-        <v>1.055628255595466</v>
+        <v>0.9544130270944514</v>
       </c>
       <c r="L10">
-        <v>1.053400064795216</v>
+        <v>0.9590947797331043</v>
       </c>
       <c r="M10">
-        <v>1.061746791731907</v>
+        <v>0.9435241135029316</v>
       </c>
       <c r="N10">
-        <v>1.0506389482845</v>
+        <v>0.9600112803684829</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041713677545962</v>
+        <v>0.9157091675062757</v>
       </c>
       <c r="D11">
-        <v>1.051101739859867</v>
+        <v>0.9271223823536469</v>
       </c>
       <c r="E11">
-        <v>1.048935846335879</v>
+        <v>0.9326579853893461</v>
       </c>
       <c r="F11">
-        <v>1.057125086563524</v>
+        <v>0.9134229176538967</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026252243156335</v>
+        <v>1.012646350846086</v>
       </c>
       <c r="J11">
-        <v>1.048234149395155</v>
+        <v>0.9490636252788822</v>
       </c>
       <c r="K11">
-        <v>1.054613747017149</v>
+        <v>0.943563244935243</v>
       </c>
       <c r="L11">
-        <v>1.052455647816042</v>
+        <v>0.9489723517393129</v>
       </c>
       <c r="M11">
-        <v>1.060615602918453</v>
+        <v>0.9301856867622988</v>
       </c>
       <c r="N11">
-        <v>1.049722762121433</v>
+        <v>0.9504114044858977</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041284516768045</v>
+        <v>0.911046638276278</v>
       </c>
       <c r="D12">
-        <v>1.050676936031618</v>
+        <v>0.9223549114287222</v>
       </c>
       <c r="E12">
-        <v>1.048537197981402</v>
+        <v>0.9281976142605761</v>
       </c>
       <c r="F12">
-        <v>1.056656177412334</v>
+        <v>0.9075754121626752</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026181690060154</v>
+        <v>1.010624459852477</v>
       </c>
       <c r="J12">
-        <v>1.047892451209734</v>
+        <v>0.9451587395464769</v>
       </c>
       <c r="K12">
-        <v>1.054234724058887</v>
+        <v>0.9391378690028341</v>
       </c>
       <c r="L12">
-        <v>1.052102796252268</v>
+        <v>0.9448430681541984</v>
       </c>
       <c r="M12">
-        <v>1.060192325800343</v>
+        <v>0.9247168507672279</v>
       </c>
       <c r="N12">
-        <v>1.049380578685396</v>
+        <v>0.9465009733678557</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041376657252431</v>
+        <v>0.9120675472600689</v>
       </c>
       <c r="D13">
-        <v>1.050768154450273</v>
+        <v>0.9233997691227707</v>
       </c>
       <c r="E13">
-        <v>1.0486227995127</v>
+        <v>0.9291751186214838</v>
       </c>
       <c r="F13">
-        <v>1.056756898612233</v>
+        <v>0.9088587458901544</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026196908651096</v>
+        <v>1.011069569701188</v>
       </c>
       <c r="J13">
-        <v>1.047965831807091</v>
+        <v>0.9460148446386326</v>
       </c>
       <c r="K13">
-        <v>1.054316125554137</v>
+        <v>0.940108382051791</v>
       </c>
       <c r="L13">
-        <v>1.052178577681205</v>
+        <v>0.9457486762769166</v>
       </c>
       <c r="M13">
-        <v>1.060283261514093</v>
+        <v>0.9259176378552255</v>
       </c>
       <c r="N13">
-        <v>1.049454063491619</v>
+        <v>0.9473582942274387</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.04167824080316</v>
+        <v>0.9153327818718754</v>
       </c>
       <c r="D14">
-        <v>1.051066668901698</v>
+        <v>0.9267379418235919</v>
       </c>
       <c r="E14">
-        <v>1.048902934494595</v>
+        <v>0.9322982878781857</v>
       </c>
       <c r="F14">
-        <v>1.057086388778319</v>
+        <v>0.9129521480250078</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026246449380346</v>
+        <v>1.012484167886879</v>
       </c>
       <c r="J14">
-        <v>1.048205942857021</v>
+        <v>0.9487488699760296</v>
       </c>
       <c r="K14">
-        <v>1.054582461778609</v>
+        <v>0.9432066625464948</v>
       </c>
       <c r="L14">
-        <v>1.052426523116504</v>
+        <v>0.9486396403595605</v>
       </c>
       <c r="M14">
-        <v>1.060580678330698</v>
+        <v>0.92974564448667</v>
       </c>
       <c r="N14">
-        <v>1.04969451552678</v>
+        <v>0.9500962021944119</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041863811049387</v>
+        <v>0.9172877233058611</v>
       </c>
       <c r="D15">
-        <v>1.051250311573437</v>
+        <v>0.9287339396810583</v>
       </c>
       <c r="E15">
-        <v>1.049075271799178</v>
+        <v>0.9341658615654149</v>
       </c>
       <c r="F15">
-        <v>1.057288993728594</v>
+        <v>0.9153949215355085</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026276725274696</v>
+        <v>1.013324577007917</v>
       </c>
       <c r="J15">
-        <v>1.048353634453407</v>
+        <v>0.9503828207942144</v>
       </c>
       <c r="K15">
-        <v>1.054746268891255</v>
+        <v>0.9450575053708326</v>
       </c>
       <c r="L15">
-        <v>1.052579017200067</v>
+        <v>0.9503665565503572</v>
       </c>
       <c r="M15">
-        <v>1.060763513759093</v>
+        <v>0.9320285170004992</v>
       </c>
       <c r="N15">
-        <v>1.049842416862173</v>
+        <v>0.9517324734101756</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042940197044367</v>
+        <v>0.9279367097520591</v>
       </c>
       <c r="D16">
-        <v>1.052314921334672</v>
+        <v>0.9395738781955082</v>
       </c>
       <c r="E16">
-        <v>1.050074364576433</v>
+        <v>0.9443101334361453</v>
       </c>
       <c r="F16">
-        <v>1.058462105445785</v>
+        <v>0.9286000391537195</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026449172492655</v>
+        <v>1.017817777595719</v>
       </c>
       <c r="J16">
-        <v>1.049209494432673</v>
+        <v>0.9592459044413758</v>
       </c>
       <c r="K16">
-        <v>1.055695280577685</v>
+        <v>0.9550869526438934</v>
       </c>
       <c r="L16">
-        <v>1.053462456975878</v>
+        <v>0.9597234627840466</v>
       </c>
       <c r="M16">
-        <v>1.06182143288441</v>
+        <v>0.9443494184041956</v>
       </c>
       <c r="N16">
-        <v>1.050699492260779</v>
+        <v>0.9606081436527257</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043612150383544</v>
+        <v>0.9340871365620446</v>
       </c>
       <c r="D17">
-        <v>1.052978999287257</v>
+        <v>0.9458107574263744</v>
       </c>
       <c r="E17">
-        <v>1.050697594050364</v>
+        <v>0.9501481553820927</v>
       </c>
       <c r="F17">
-        <v>1.059192609861862</v>
+        <v>0.9361520793932</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026554034724548</v>
+        <v>1.020348266090426</v>
       </c>
       <c r="J17">
-        <v>1.049743064324509</v>
+        <v>0.9643371306585764</v>
       </c>
       <c r="K17">
-        <v>1.056286716094883</v>
+        <v>0.9608406662817632</v>
       </c>
       <c r="L17">
-        <v>1.054013000640728</v>
+        <v>0.9650906241847786</v>
       </c>
       <c r="M17">
-        <v>1.062479567228624</v>
+        <v>0.9513805507440729</v>
       </c>
       <c r="N17">
-        <v>1.051233819883062</v>
+        <v>0.9657065999951266</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044002937130818</v>
+        <v>0.9375178707992229</v>
       </c>
       <c r="D18">
-        <v>1.053365017197873</v>
+        <v>0.9492825307109487</v>
       </c>
       <c r="E18">
-        <v>1.051059874336846</v>
+        <v>0.9533983591123119</v>
       </c>
       <c r="F18">
-        <v>1.059616788277543</v>
+        <v>0.9403418095849928</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026614011233293</v>
+        <v>1.021739266996664</v>
       </c>
       <c r="J18">
-        <v>1.050053113545975</v>
+        <v>0.9671685129863427</v>
       </c>
       <c r="K18">
-        <v>1.056630315074434</v>
+        <v>0.9640381715458374</v>
       </c>
       <c r="L18">
-        <v>1.054332833552768</v>
+        <v>0.9680730916996798</v>
       </c>
       <c r="M18">
-        <v>1.062861491841754</v>
+        <v>0.9552764208077231</v>
       </c>
       <c r="N18">
-        <v>1.051544309409986</v>
+        <v>0.9685420032105622</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044135991133596</v>
+        <v>0.9386635902116356</v>
       </c>
       <c r="D19">
-        <v>1.053496415495051</v>
+        <v>0.9504408385335054</v>
       </c>
       <c r="E19">
-        <v>1.051183193654496</v>
+        <v>0.9544828167436621</v>
       </c>
       <c r="F19">
-        <v>1.059761099469125</v>
+        <v>0.9417374265393519</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026634260629912</v>
+        <v>1.022200519309964</v>
       </c>
       <c r="J19">
-        <v>1.050158634461549</v>
+        <v>0.9681127347095155</v>
       </c>
       <c r="K19">
-        <v>1.056747241436066</v>
+        <v>0.9651041274408604</v>
       </c>
       <c r="L19">
-        <v>1.054441670709686</v>
+        <v>0.9690673260285071</v>
       </c>
       <c r="M19">
-        <v>1.062991388443327</v>
+        <v>0.9565733696151831</v>
       </c>
       <c r="N19">
-        <v>1.051649980177364</v>
+        <v>0.969487565836886</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043540175637059</v>
+        <v>0.9334440949757161</v>
       </c>
       <c r="D20">
-        <v>1.052907887639962</v>
+        <v>0.9451594588415534</v>
       </c>
       <c r="E20">
-        <v>1.050630855871737</v>
+        <v>0.9495384593647471</v>
       </c>
       <c r="F20">
-        <v>1.059114431872305</v>
+        <v>0.9353649734378704</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026542906970546</v>
+        <v>1.020085906215263</v>
       </c>
       <c r="J20">
-        <v>1.049685938928336</v>
+        <v>0.9638057550091975</v>
       </c>
       <c r="K20">
-        <v>1.056223403225172</v>
+        <v>0.9602403965313201</v>
       </c>
       <c r="L20">
-        <v>1.053954066220066</v>
+        <v>0.9645307063099924</v>
       </c>
       <c r="M20">
-        <v>1.062409158141655</v>
+        <v>0.9506482606572143</v>
       </c>
       <c r="N20">
-        <v>1.051176613362274</v>
+        <v>0.9651744697313758</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041589483152185</v>
+        <v>0.9143834996860785</v>
       </c>
       <c r="D21">
-        <v>1.050978822653564</v>
+        <v>0.9257680230365849</v>
       </c>
       <c r="E21">
-        <v>1.048820496613536</v>
+        <v>0.9313908105850331</v>
       </c>
       <c r="F21">
-        <v>1.056989446576506</v>
+        <v>0.9117638350750903</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026231912518285</v>
+        <v>1.012074321722942</v>
       </c>
       <c r="J21">
-        <v>1.048135288027346</v>
+        <v>0.9479546627892235</v>
       </c>
       <c r="K21">
-        <v>1.054504093189688</v>
+        <v>0.9423068164977989</v>
       </c>
       <c r="L21">
-        <v>1.052353566371638</v>
+        <v>0.9478000235870612</v>
       </c>
       <c r="M21">
-        <v>1.060493182607434</v>
+        <v>0.9286347051039082</v>
       </c>
       <c r="N21">
-        <v>1.049623760359143</v>
+        <v>0.9493008671423034</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04035232820555</v>
+        <v>0.8999837206867246</v>
       </c>
       <c r="D22">
-        <v>1.049753669680425</v>
+        <v>0.9109955646684348</v>
       </c>
       <c r="E22">
-        <v>1.047670798323042</v>
+        <v>0.9175722016603572</v>
       </c>
       <c r="F22">
-        <v>1.05563575542647</v>
+        <v>0.8935572921212891</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026025571364273</v>
+        <v>1.005712844869254</v>
       </c>
       <c r="J22">
-        <v>1.047149502042212</v>
+        <v>0.9358407631024414</v>
       </c>
       <c r="K22">
-        <v>1.053410405331989</v>
+        <v>0.9285635327751486</v>
       </c>
       <c r="L22">
-        <v>1.051335369033051</v>
+        <v>0.9349747587537003</v>
       </c>
       <c r="M22">
-        <v>1.059270549409009</v>
+        <v>0.9115798888471288</v>
       </c>
       <c r="N22">
-        <v>1.048636574444839</v>
+        <v>0.9371697643284824</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041009194263411</v>
+        <v>0.9079253765592908</v>
       </c>
       <c r="D23">
-        <v>1.050404325434018</v>
+        <v>0.9191569632111224</v>
       </c>
       <c r="E23">
-        <v>1.048281375358128</v>
+        <v>0.9252059768145563</v>
       </c>
       <c r="F23">
-        <v>1.056355063617472</v>
+        <v>0.903641303217966</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026135986386036</v>
+        <v>1.009255187981409</v>
       </c>
       <c r="J23">
-        <v>1.04767312547901</v>
+        <v>0.942537469679834</v>
       </c>
       <c r="K23">
-        <v>1.053991407663165</v>
+        <v>0.9361652479665302</v>
       </c>
       <c r="L23">
-        <v>1.051876276550971</v>
+        <v>0.9420691392853765</v>
       </c>
       <c r="M23">
-        <v>1.059920413963197</v>
+        <v>0.9210338329084452</v>
       </c>
       <c r="N23">
-        <v>1.049160941486977</v>
+        <v>0.9438759809973382</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043572701485409</v>
+        <v>0.9337351341753247</v>
       </c>
       <c r="D24">
-        <v>1.052940024032333</v>
+        <v>0.9454542574291326</v>
       </c>
       <c r="E24">
-        <v>1.050661015808243</v>
+        <v>0.9498144258760235</v>
       </c>
       <c r="F24">
-        <v>1.059149763047318</v>
+        <v>0.935721286764399</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026547938793402</v>
+        <v>1.02020471365468</v>
       </c>
       <c r="J24">
-        <v>1.049711755058927</v>
+        <v>0.9640462809470466</v>
       </c>
       <c r="K24">
-        <v>1.056252015833505</v>
+        <v>0.9605121143969664</v>
       </c>
       <c r="L24">
-        <v>1.053980700131814</v>
+        <v>0.9647841591937526</v>
       </c>
       <c r="M24">
-        <v>1.062440979012555</v>
+        <v>0.9509797747266348</v>
       </c>
       <c r="N24">
-        <v>1.051202466154732</v>
+        <v>0.9654153372436454</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.046502443619029</v>
+        <v>0.9574655605696475</v>
       </c>
       <c r="D25">
-        <v>1.055830627671226</v>
+        <v>0.9693731675393863</v>
       </c>
       <c r="E25">
-        <v>1.053373988506274</v>
+        <v>0.9722134092932955</v>
       </c>
       <c r="F25">
-        <v>1.062318014848719</v>
+        <v>0.9643926460329704</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02697943277255</v>
+        <v>1.029530708498998</v>
       </c>
       <c r="J25">
-        <v>1.052031573115911</v>
+        <v>0.983514352217798</v>
       </c>
       <c r="K25">
-        <v>1.058821508967545</v>
+        <v>0.9824662912980214</v>
       </c>
       <c r="L25">
-        <v>1.056372293002348</v>
+        <v>0.9852589565018565</v>
       </c>
       <c r="M25">
-        <v>1.065289473043913</v>
+        <v>0.9775700716414801</v>
       </c>
       <c r="N25">
-        <v>1.053525578619444</v>
+        <v>0.9849110554086202</v>
       </c>
     </row>
   </sheetData>
